--- a/Form.xlsx
+++ b/Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Voucher" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,9 +18,12 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_Hlt476453892" vbProcedure="false">instructions!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">Instructions!$A$1:$F$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">Instructions!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="154">
   <si>
     <t xml:space="preserve">The University of Mississippi</t>
   </si>
@@ -174,67 +177,40 @@
     <t xml:space="preserve">Breakfast</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79</t>
-  </si>
-  <si>
     <t xml:space="preserve">b.</t>
   </si>
   <si>
     <t xml:space="preserve">Lunch</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31</t>
-  </si>
-  <si>
     <t xml:space="preserve">c.</t>
   </si>
   <si>
     <t xml:space="preserve">Dinner</t>
   </si>
   <si>
-    <t xml:space="preserve">15.64</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daily Meal Totals</t>
   </si>
   <si>
     <t xml:space="preserve">Lodging*</t>
   </si>
   <si>
-    <t xml:space="preserve">77.26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total Meals and Lodging</t>
   </si>
   <si>
     <t xml:space="preserve">Meal Tips (not to exceed 20%)</t>
   </si>
   <si>
-    <t xml:space="preserve">25.68</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taxi*</t>
   </si>
   <si>
-    <t xml:space="preserve">50.35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parking, Tolls*</t>
   </si>
   <si>
-    <t xml:space="preserve">12.64</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gasoline*</t>
   </si>
   <si>
-    <t xml:space="preserve">43.24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Business Calls*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.69</t>
   </si>
   <si>
     <t xml:space="preserve">Total Other</t>
@@ -1460,7 +1436,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="204">
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2210,10 +2186,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2362,22 +2334,22 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="1.87264150943396"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3584905660377"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.61320754716981"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.98584905660377"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.4858490566038"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.86320754716981"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="5.24056603773585"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="2" width="8.98584905660377"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8584905660377"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.86320754716981"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.3584905660377"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8584905660377"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.23584905660377"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="5.36792452830189"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="2" width="9.35849056603774"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2576,9 +2548,7 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="35" t="s">
-        <v>24</v>
-      </c>
+      <c r="F8" s="35"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
@@ -2626,9 +2596,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="44" t="s">
-        <v>36</v>
-      </c>
+      <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -2647,15 +2615,13 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" s="43"/>
-      <c r="F11" s="44" t="s">
-        <v>39</v>
-      </c>
+      <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
@@ -2674,15 +2640,13 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="43"/>
-      <c r="F12" s="44" t="s">
-        <v>42</v>
-      </c>
+      <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -2701,7 +2665,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -2744,13 +2708,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="51" t="s">
-        <v>45</v>
-      </c>
+      <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
@@ -2769,7 +2731,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -2794,13 +2756,11 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="44" t="s">
-        <v>48</v>
-      </c>
+      <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
@@ -2821,13 +2781,11 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="44" t="s">
-        <v>50</v>
-      </c>
+      <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -2848,13 +2806,11 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="44" t="s">
-        <v>52</v>
-      </c>
+      <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
@@ -2875,13 +2831,11 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="44" t="s">
-        <v>54</v>
-      </c>
+      <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -2902,13 +2856,11 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="44" t="s">
-        <v>56</v>
-      </c>
+      <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
@@ -2927,7 +2879,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -2950,7 +2902,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -2960,13 +2912,13 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N22" s="0"/>
       <c r="P22" s="0"/>
@@ -2974,28 +2926,28 @@
     </row>
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -3191,7 +3143,7 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="89" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89"/>
@@ -3236,16 +3188,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -3265,32 +3217,32 @@
         <v>18</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J35" s="100" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -3309,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -3328,7 +3280,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -3363,7 +3315,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">IF(M4="Y",SUM(E36:E39,'Page 2'!E40,'Page 3'!E40),SUM(E36:E39))</f>
@@ -3374,7 +3326,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -3385,10 +3337,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="117"/>
@@ -3399,7 +3351,7 @@
       <c r="I41" s="118"/>
       <c r="J41" s="118"/>
       <c r="K41" s="119" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L41" s="119"/>
       <c r="M41" s="120" t="n">
@@ -3410,7 +3362,7 @@
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="102"/>
       <c r="B42" s="121" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C42" s="121"/>
       <c r="D42" s="121"/>
@@ -3421,11 +3373,11 @@
       <c r="I42" s="121"/>
       <c r="J42" s="121"/>
       <c r="K42" s="122" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L42" s="122"/>
       <c r="M42" s="123" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3445,10 +3397,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="59" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C44" s="124"/>
       <c r="D44" s="124"/>
@@ -3464,7 +3416,7 @@
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="102" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B45" s="124"/>
       <c r="C45" s="124"/>
@@ -3482,64 +3434,64 @@
     <row r="46" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="102"/>
       <c r="B46" s="125" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C46" s="126"/>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
       <c r="F46" s="127" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G46" s="125" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H46" s="128"/>
       <c r="I46" s="126"/>
       <c r="J46" s="129" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" s="130" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L46" s="130"/>
       <c r="M46" s="131" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="59" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B47" s="132" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C47" s="132"/>
       <c r="D47" s="132"/>
       <c r="E47" s="133" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F47" s="134" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" s="135" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H47" s="135"/>
       <c r="I47" s="134" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J47" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" s="137" t="s">
         <v>87</v>
-      </c>
-      <c r="K47" s="137" t="s">
-        <v>96</v>
       </c>
       <c r="L47" s="137"/>
       <c r="M47" s="138"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="102" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B48" s="139"/>
       <c r="C48" s="139"/>
@@ -3587,7 +3539,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="102"/>
       <c r="B51" s="146" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -3596,7 +3548,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="147"/>
       <c r="I51" s="148" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -3606,7 +3558,7 @@
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="102"/>
       <c r="B52" s="149" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -3749,13 +3701,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="1.87264150943396"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3584905660377"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.98584905660377"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.35849056603774"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="1" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.86320754716981"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="8.98584905660377"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8584905660377"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.3584905660377"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.73584905660377"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="1" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.23584905660377"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="9.35849056603774"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3785,7 +3737,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3799,7 +3751,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="155" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L2" s="155"/>
       <c r="M2" s="155"/>
@@ -3826,7 +3778,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="16" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -3974,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
@@ -4019,10 +3971,10 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -4044,10 +3996,10 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
@@ -4069,7 +4021,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -4112,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -4135,7 +4087,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -4160,7 +4112,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -4185,7 +4137,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -4210,7 +4162,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
@@ -4235,7 +4187,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
@@ -4260,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
@@ -4283,7 +4235,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -4306,7 +4258,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -4316,13 +4268,13 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N22" s="0"/>
       <c r="P22" s="0"/>
@@ -4330,28 +4282,28 @@
     </row>
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -4593,16 +4545,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -4622,32 +4574,32 @@
         <v>18</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J35" s="100" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -4666,7 +4618,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -4685,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -4720,7 +4672,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">SUM(E36:E39)</f>
@@ -4731,7 +4683,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -4742,10 +4694,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" s="167" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
@@ -4897,7 +4849,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="168"/>
       <c r="B51" s="146" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -4906,7 +4858,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="170"/>
       <c r="I51" s="148" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -4916,7 +4868,7 @@
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="168"/>
       <c r="B52" s="149" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -5043,11 +4995,12 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.87264150943396"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3584905660377"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98584905660377"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.23584905660377"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8584905660377"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3584905660377"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.98584905660377"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.60849056603774"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5073,7 +5026,7 @@
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5087,7 +5040,7 @@
       <c r="I2" s="172"/>
       <c r="J2" s="172"/>
       <c r="K2" s="155" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L2" s="155"/>
       <c r="M2" s="155"/>
@@ -5239,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
@@ -5278,10 +5231,10 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -5300,10 +5253,10 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
@@ -5322,7 +5275,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -5362,7 +5315,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -5382,7 +5335,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -5404,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -5426,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -5448,7 +5401,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
@@ -5470,7 +5423,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
@@ -5492,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
@@ -5512,7 +5465,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5532,7 +5485,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -5542,39 +5495,39 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -5791,16 +5744,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -5820,32 +5773,32 @@
         <v>18</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J35" s="100" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -5864,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -5883,7 +5836,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -5918,7 +5871,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">SUM(E36:E39)</f>
@@ -5929,7 +5882,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -5940,10 +5893,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" s="167" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
@@ -6095,7 +6048,7 @@
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="168"/>
       <c r="B51" s="146" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -6104,7 +6057,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="170"/>
       <c r="I51" s="148" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -6114,7 +6067,7 @@
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="168"/>
       <c r="B52" s="149" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -6237,17 +6190,17 @@
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="175" width="2.49528301886792"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="175" width="12.3537735849057"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="175" width="22.8396226415094"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="175" width="42.6839622641509"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="175" width="9.98584905660377"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="175" width="7.24056603773585"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="175" width="11.4811320754717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="175" width="12.8537735849057"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="175" width="23.8396226415094"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="175" width="44.5566037735849"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="175" width="10.3584905660377"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="175" width="7.49056603773585"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="175" width="11.9811320754717"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="176" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B1" s="176"/>
       <c r="C1" s="176"/>
@@ -7275,7 +7228,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="177" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B2" s="177"/>
       <c r="C2" s="177"/>
@@ -8303,7 +8256,7 @@
     </row>
     <row r="3" s="179" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="178" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" s="178"/>
       <c r="C3" s="178"/>
@@ -8313,7 +8266,7 @@
     </row>
     <row r="4" s="179" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="178" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -8323,7 +8276,7 @@
     </row>
     <row r="5" s="179" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="180" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B5" s="180"/>
       <c r="C5" s="180"/>
@@ -8333,7 +8286,7 @@
     </row>
     <row r="6" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="181" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B6" s="181"/>
       <c r="C6" s="181"/>
@@ -8343,7 +8296,7 @@
     </row>
     <row r="7" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="178" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B7" s="178"/>
       <c r="C7" s="178"/>
@@ -8354,13 +8307,13 @@
     <row r="8" s="179" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="182"/>
       <c r="B8" s="183" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D8" s="184" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E8" s="184"/>
       <c r="F8" s="184"/>
@@ -8370,13 +8323,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="186" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C9" s="187" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D9" s="188" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E9" s="188"/>
       <c r="F9" s="188"/>
@@ -8386,110 +8339,110 @@
         <v>2</v>
       </c>
       <c r="B10" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+    </row>
+    <row r="11" s="179" customFormat="true" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="190" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="191" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+    </row>
+    <row r="12" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="194" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="195" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="189" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+    </row>
+    <row r="13" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="188" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="189" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="190" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-    </row>
-    <row r="11" s="179" customFormat="true" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="191" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="192" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-    </row>
-    <row r="12" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="195" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="190" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-    </row>
-    <row r="13" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="195" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="189" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="194" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
+      <c r="C13" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
     </row>
     <row r="14" s="179" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="185" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="186" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C14" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="190" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
+        <v>117</v>
+      </c>
+      <c r="D14" s="189" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
     </row>
     <row r="15" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="185" t="n">
         <v>7</v>
       </c>
       <c r="B15" s="186" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C15" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="190" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
+        <v>117</v>
+      </c>
+      <c r="D15" s="189" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
     </row>
     <row r="16" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="197" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
+      <c r="A16" s="196" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
     </row>
     <row r="17" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="178" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B17" s="178"/>
       <c r="C17" s="178"/>
@@ -8498,140 +8451,140 @@
       <c r="F17" s="178"/>
     </row>
     <row r="18" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="198" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="198"/>
+      <c r="A18" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="197"/>
       <c r="C18" s="183" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D18" s="184" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E18" s="184"/>
       <c r="F18" s="184"/>
     </row>
     <row r="19" s="179" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="199" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="200" t="s">
-        <v>135</v>
+      <c r="A19" s="198" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199" t="s">
+        <v>126</v>
       </c>
       <c r="D19" s="188" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E19" s="188"/>
       <c r="F19" s="188"/>
     </row>
-    <row r="20" s="179" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="199" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="201" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="190" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-    </row>
-    <row r="21" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="199" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="199"/>
+    <row r="20" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="198" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="198"/>
+      <c r="C20" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="189" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="198" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="198"/>
       <c r="C21" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="190" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-    </row>
-    <row r="22" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="199" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="199"/>
+        <v>117</v>
+      </c>
+      <c r="D21" s="189" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="198"/>
       <c r="C22" s="186" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D22" s="188" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E22" s="188"/>
       <c r="F22" s="188"/>
     </row>
-    <row r="23" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="197" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-    </row>
-    <row r="24" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="184" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B24" s="184"/>
       <c r="C24" s="183" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D24" s="184" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="184"/>
     </row>
-    <row r="25" s="179" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="190" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="190"/>
-      <c r="C25" s="202" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-    </row>
-    <row r="26" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="190" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="190"/>
-      <c r="C26" s="202" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="190" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-    </row>
-    <row r="27" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="197" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="197"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
+    <row r="25" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="189"/>
+      <c r="C25" s="201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="189" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="189" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="189"/>
+      <c r="C26" s="201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="189" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="196" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="181" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B28" s="181"/>
       <c r="C28" s="181"/>
@@ -8640,130 +8593,130 @@
       <c r="F28" s="181"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
+      <c r="A29" s="202" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="202"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="184" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B30" s="184"/>
       <c r="C30" s="184" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D30" s="184"/>
       <c r="E30" s="184"/>
       <c r="F30" s="184"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="190" t="s">
+      <c r="A31" s="189" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="189"/>
+      <c r="C33" s="189" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="189" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="189"/>
+      <c r="C34" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="189"/>
+      <c r="C35" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+    </row>
+    <row r="37" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190" t="s">
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="196" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190" t="s">
+      <c r="B38" s="196"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+    </row>
+    <row r="39" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="203" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="190" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="190" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="190" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-    </row>
-    <row r="37" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="190" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="190"/>
-      <c r="C37" s="190" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="197" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="197"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="197"/>
-      <c r="F38" s="197"/>
-    </row>
-    <row r="39" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="204" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="d144" objects="true" scenarios="true"/>

--- a/Form.xlsx
+++ b/Form.xlsx
@@ -19,11 +19,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_Hlt476453892" vbProcedure="false">instructions!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">Instructions!$A$1:$F$39</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">Instructions!$A$1:$F$39</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">Instructions!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="147">
   <si>
     <t xml:space="preserve">The University of Mississippi</t>
   </si>
@@ -44,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trip #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345</t>
   </si>
   <si>
     <t xml:space="preserve">Travel Reimbursement Voucher</t>
@@ -96,9 +96,6 @@
     <t xml:space="preserve">Contact Person:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sameer Dhoju</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dept Name</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t xml:space="preserve">Pers #</t>
   </si>
   <si>
-    <t xml:space="preserve">1056</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONTACT</t>
   </si>
   <si>
@@ -132,34 +126,22 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Fun</t>
-  </si>
-  <si>
     <t xml:space="preserve">Began @</t>
   </si>
   <si>
-    <t xml:space="preserve">1:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.12.2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accompanied By:</t>
   </si>
   <si>
     <t xml:space="preserve">Ended @</t>
   </si>
   <si>
-    <t xml:space="preserve">12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04.13.2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blake,Brick,Robert</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
   </si>
   <si>
     <t xml:space="preserve">Totals</t>
@@ -2334,22 +2316,22 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="1.87264150943396"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8584905660377"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.86320754716981"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.3584905660377"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="9.60849056603774"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8584905660377"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.60849056603774"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="5.36792452830189"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="2" width="9.35849056603774"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.3537735849057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="7.11320754716981"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7311320754717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1084905660377"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="9.98584905660377"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3584905660377"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="1" width="9.98584905660377"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="5.61792452830189"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="2" width="9.73584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2370,9 +2352,7 @@
       <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="0"/>
       <c r="P1" s="0"/>
@@ -2380,7 +2360,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2388,13 +2368,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -2404,31 +2384,27 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="0"/>
       <c r="P3" s="0"/>
@@ -2436,31 +2412,31 @@
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N4" s="24"/>
       <c r="P4" s="0"/>
@@ -2468,24 +2444,18 @@
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -2502,16 +2472,12 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>28</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="30" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -2540,23 +2506,25 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="G8" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N8" s="0"/>
       <c r="P8" s="0"/>
@@ -2564,13 +2532,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="39" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -2590,10 +2558,10 @@
       <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="44"/>
@@ -2615,10 +2583,10 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -2640,10 +2608,10 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
@@ -2665,7 +2633,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -2708,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -2731,7 +2699,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -2756,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -2781,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -2806,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
@@ -2831,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
@@ -2856,7 +2824,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
@@ -2879,7 +2847,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -2902,7 +2870,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -2912,13 +2880,13 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N22" s="0"/>
       <c r="P22" s="0"/>
@@ -2926,28 +2894,28 @@
     </row>
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -3143,7 +3111,7 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="89" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89"/>
@@ -3166,7 +3134,7 @@
       <c r="G33" s="93"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J33" s="95" t="n">
         <f aca="false">IF(M4="Y",SUM(J24:J32,'Page 2'!J33,'Page 3'!J33),SUM(J24:J32))</f>
@@ -3188,16 +3156,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -3214,35 +3182,35 @@
       <c r="D35" s="96"/>
       <c r="E35" s="96"/>
       <c r="F35" s="98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J35" s="100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -3261,7 +3229,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -3280,7 +3248,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -3315,7 +3283,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">IF(M4="Y",SUM(E36:E39,'Page 2'!E40,'Page 3'!E40),SUM(E36:E39))</f>
@@ -3326,7 +3294,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -3337,10 +3305,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="117"/>
@@ -3351,7 +3319,7 @@
       <c r="I41" s="118"/>
       <c r="J41" s="118"/>
       <c r="K41" s="119" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L41" s="119"/>
       <c r="M41" s="120" t="n">
@@ -3362,7 +3330,7 @@
     <row r="42" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="102"/>
       <c r="B42" s="121" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C42" s="121"/>
       <c r="D42" s="121"/>
@@ -3373,11 +3341,11 @@
       <c r="I42" s="121"/>
       <c r="J42" s="121"/>
       <c r="K42" s="122" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L42" s="122"/>
       <c r="M42" s="123" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3397,10 +3365,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="59" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C44" s="124"/>
       <c r="D44" s="124"/>
@@ -3416,7 +3384,7 @@
     </row>
     <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="102" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B45" s="124"/>
       <c r="C45" s="124"/>
@@ -3434,64 +3402,64 @@
     <row r="46" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="102"/>
       <c r="B46" s="125" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C46" s="126"/>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
       <c r="F46" s="127" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G46" s="125" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H46" s="128"/>
       <c r="I46" s="126"/>
       <c r="J46" s="129" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K46" s="130" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L46" s="130"/>
       <c r="M46" s="131" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="59" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B47" s="132" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C47" s="132"/>
       <c r="D47" s="132"/>
       <c r="E47" s="133" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F47" s="134" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G47" s="135" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H47" s="135"/>
       <c r="I47" s="134" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J47" s="136" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K47" s="137" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L47" s="137"/>
       <c r="M47" s="138"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="102" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B48" s="139"/>
       <c r="C48" s="139"/>
@@ -3539,7 +3507,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="102"/>
       <c r="B51" s="146" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -3548,7 +3516,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="147"/>
       <c r="I51" s="148" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -3558,7 +3526,7 @@
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="102"/>
       <c r="B52" s="149" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -3701,13 +3669,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="1" width="1.87264150943396"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8584905660377"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.60849056603774"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.3584905660377"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.73584905660377"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="1" width="9.60849056603774"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.23584905660377"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="9.35849056603774"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.3537735849057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.98584905660377"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7311320754717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="10.1084905660377"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="1" width="9.98584905660377"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="9.73584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3737,7 +3705,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3745,13 +3713,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="155" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L2" s="155"/>
       <c r="M2" s="155"/>
@@ -3762,23 +3730,23 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -3789,23 +3757,23 @@
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" s="157" t="str">
         <f aca="false">Voucher!J5</f>
@@ -3829,7 +3797,7 @@
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="160" t="n">
         <f aca="false">Voucher!H5</f>
@@ -3858,7 +3826,7 @@
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H6" s="160" t="n">
         <f aca="false">Voucher!H6</f>
@@ -3896,10 +3864,10 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -3912,7 +3880,7 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N8" s="0"/>
       <c r="P8" s="0"/>
@@ -3920,13 +3888,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="39" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
@@ -3946,10 +3914,10 @@
       <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="44"/>
@@ -3971,10 +3939,10 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -3996,10 +3964,10 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
@@ -4021,7 +3989,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -4064,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -4087,7 +4055,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -4112,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -4137,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -4162,7 +4130,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
@@ -4187,7 +4155,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
@@ -4212,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
@@ -4235,7 +4203,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -4258,7 +4226,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -4268,13 +4236,13 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N22" s="0"/>
       <c r="P22" s="0"/>
@@ -4282,28 +4250,28 @@
     </row>
     <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -4523,7 +4491,7 @@
       <c r="G33" s="93"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J33" s="95" t="n">
         <f aca="false">SUM(J24:J32)</f>
@@ -4545,16 +4513,16 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -4571,35 +4539,35 @@
       <c r="D35" s="96"/>
       <c r="E35" s="96"/>
       <c r="F35" s="98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J35" s="100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -4618,7 +4586,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -4637,7 +4605,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -4672,7 +4640,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">SUM(E36:E39)</f>
@@ -4683,7 +4651,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -4694,10 +4662,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B41" s="167" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
@@ -4849,7 +4817,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="168"/>
       <c r="B51" s="146" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -4858,7 +4826,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="170"/>
       <c r="I51" s="148" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -4868,7 +4836,7 @@
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="168"/>
       <c r="B52" s="149" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -4995,12 +4963,12 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="1.87264150943396"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8584905660377"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.60849056603774"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3584905660377"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="9.60849056603774"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.98584905660377"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.60849056603774"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3537735849057"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98584905660377"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.7311320754717"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="9.98584905660377"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.35849056603774"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.98584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,7 +4994,7 @@
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5034,59 +5002,59 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="172"/>
       <c r="I2" s="172"/>
       <c r="J2" s="172"/>
       <c r="K2" s="155" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L2" s="155"/>
       <c r="M2" s="155"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" s="172"/>
       <c r="I3" s="172"/>
       <c r="J3" s="172"/>
       <c r="K3" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4" s="157" t="str">
         <f aca="false">Voucher!J5</f>
@@ -5107,7 +5075,7 @@
       <c r="E5" s="173"/>
       <c r="F5" s="173"/>
       <c r="G5" s="26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="160" t="n">
         <f aca="false">Voucher!H5</f>
@@ -5133,7 +5101,7 @@
       <c r="E6" s="173"/>
       <c r="F6" s="173"/>
       <c r="G6" s="26" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H6" s="160" t="n">
         <f aca="false">Voucher!H6</f>
@@ -5165,10 +5133,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -5181,18 +5149,18 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" s="39" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
@@ -5209,10 +5177,10 @@
       <c r="A10" s="38"/>
       <c r="B10" s="39"/>
       <c r="C10" s="41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="44"/>
@@ -5231,10 +5199,10 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -5253,10 +5221,10 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
@@ -5275,7 +5243,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -5315,7 +5283,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -5335,7 +5303,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -5357,7 +5325,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -5379,7 +5347,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -5401,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
@@ -5423,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
@@ -5445,7 +5413,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
@@ -5465,7 +5433,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5485,7 +5453,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -5495,39 +5463,39 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -5723,7 +5691,7 @@
       <c r="G33" s="93"/>
       <c r="H33" s="94"/>
       <c r="I33" s="94" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J33" s="95" t="n">
         <f aca="false">SUM(J24:J32)</f>
@@ -5744,16 +5712,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -5770,35 +5738,35 @@
       <c r="D35" s="96"/>
       <c r="E35" s="96"/>
       <c r="F35" s="98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J35" s="100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -5817,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -5836,7 +5804,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -5871,7 +5839,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">SUM(E36:E39)</f>
@@ -5882,7 +5850,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -5893,10 +5861,10 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B41" s="167" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
@@ -6048,7 +6016,7 @@
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="168"/>
       <c r="B51" s="146" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -6057,7 +6025,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="170"/>
       <c r="I51" s="148" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -6067,7 +6035,7 @@
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="168"/>
       <c r="B52" s="149" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -6190,17 +6158,17 @@
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="175" width="2.49528301886792"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="175" width="12.8537735849057"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="175" width="23.8396226415094"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="175" width="44.5566037735849"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="175" width="10.3584905660377"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="175" width="7.49056603773585"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="175" width="11.9811320754717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="175" width="13.3537735849057"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="175" width="24.8349056603774"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="175" width="46.4292452830189"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="175" width="10.7311320754717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="175" width="7.73584905660377"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="175" width="12.4811320754717"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="176" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B1" s="176"/>
       <c r="C1" s="176"/>
@@ -7228,7 +7196,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="177" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B2" s="177"/>
       <c r="C2" s="177"/>
@@ -8256,7 +8224,7 @@
     </row>
     <row r="3" s="179" customFormat="true" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="178" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="178"/>
       <c r="C3" s="178"/>
@@ -8266,7 +8234,7 @@
     </row>
     <row r="4" s="179" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="178" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -8276,7 +8244,7 @@
     </row>
     <row r="5" s="179" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="180" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B5" s="180"/>
       <c r="C5" s="180"/>
@@ -8286,7 +8254,7 @@
     </row>
     <row r="6" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="181" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B6" s="181"/>
       <c r="C6" s="181"/>
@@ -8296,7 +8264,7 @@
     </row>
     <row r="7" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="178" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B7" s="178"/>
       <c r="C7" s="178"/>
@@ -8307,13 +8275,13 @@
     <row r="8" s="179" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="182"/>
       <c r="B8" s="183" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D8" s="184" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E8" s="184"/>
       <c r="F8" s="184"/>
@@ -8323,13 +8291,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="186" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C9" s="187" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D9" s="188" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E9" s="188"/>
       <c r="F9" s="188"/>
@@ -8339,13 +8307,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="186" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C10" s="188" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D10" s="189" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E10" s="189"/>
       <c r="F10" s="189"/>
@@ -8355,13 +8323,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="191" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D11" s="193" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E11" s="193"/>
       <c r="F11" s="193"/>
@@ -8371,68 +8339,68 @@
         <v>4</v>
       </c>
       <c r="B12" s="195" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C12" s="195" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D12" s="189" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E12" s="189"/>
       <c r="F12" s="189"/>
     </row>
-    <row r="13" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="194" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="188" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C13" s="195" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D13" s="193" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E13" s="193"/>
       <c r="F13" s="193"/>
     </row>
-    <row r="14" s="179" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="185" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="186" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C14" s="186" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D14" s="189" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E14" s="189"/>
       <c r="F14" s="189"/>
     </row>
-    <row r="15" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="185" t="n">
         <v>7</v>
       </c>
       <c r="B15" s="186" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C15" s="186" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D15" s="189" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E15" s="189"/>
       <c r="F15" s="189"/>
     </row>
-    <row r="16" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="196" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B16" s="196"/>
       <c r="C16" s="196"/>
@@ -8440,9 +8408,9 @@
       <c r="E16" s="196"/>
       <c r="F16" s="196"/>
     </row>
-    <row r="17" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="178" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B17" s="178"/>
       <c r="C17" s="178"/>
@@ -8450,79 +8418,79 @@
       <c r="E17" s="178"/>
       <c r="F17" s="178"/>
     </row>
-    <row r="18" s="179" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="197" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B18" s="197"/>
       <c r="C18" s="183" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D18" s="184" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E18" s="184"/>
       <c r="F18" s="184"/>
     </row>
-    <row r="19" s="179" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="198" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B19" s="198"/>
       <c r="C19" s="199" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D19" s="188" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E19" s="188"/>
       <c r="F19" s="188"/>
     </row>
     <row r="20" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="198" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B20" s="198"/>
       <c r="C20" s="200" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D20" s="189" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E20" s="189"/>
       <c r="F20" s="189"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="198" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B21" s="198"/>
       <c r="C21" s="186" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D21" s="189" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E21" s="189"/>
       <c r="F21" s="189"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="198" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B22" s="198"/>
       <c r="C22" s="186" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D22" s="188" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E22" s="188"/>
       <c r="F22" s="188"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="196" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B23" s="196"/>
       <c r="C23" s="196"/>
@@ -8532,49 +8500,49 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="184" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B24" s="184"/>
       <c r="C24" s="183" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D24" s="184" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="184"/>
     </row>
     <row r="25" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="189" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B25" s="189"/>
       <c r="C25" s="201" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D25" s="189" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E25" s="189"/>
       <c r="F25" s="189"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="189" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B26" s="189"/>
       <c r="C26" s="201" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D26" s="189" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E26" s="189"/>
       <c r="F26" s="189"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="196" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B27" s="196"/>
       <c r="C27" s="196"/>
@@ -8584,7 +8552,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="181" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B28" s="181"/>
       <c r="C28" s="181"/>
@@ -8594,7 +8562,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="202" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B29" s="202"/>
       <c r="C29" s="202"/>
@@ -8604,11 +8572,11 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="184" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B30" s="184"/>
       <c r="C30" s="184" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D30" s="184"/>
       <c r="E30" s="184"/>
@@ -8616,11 +8584,11 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="189" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B31" s="189"/>
       <c r="C31" s="189" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D31" s="189"/>
       <c r="E31" s="189"/>
@@ -8628,11 +8596,11 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="189" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B32" s="189"/>
       <c r="C32" s="189" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D32" s="189"/>
       <c r="E32" s="189"/>
@@ -8640,11 +8608,11 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="189" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B33" s="189"/>
       <c r="C33" s="189" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D33" s="189"/>
       <c r="E33" s="189"/>
@@ -8652,11 +8620,11 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="189" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B34" s="189"/>
       <c r="C34" s="189" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D34" s="189"/>
       <c r="E34" s="189"/>
@@ -8664,11 +8632,11 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="189" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B35" s="189"/>
       <c r="C35" s="189" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D35" s="189"/>
       <c r="E35" s="189"/>
@@ -8676,11 +8644,11 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="189" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B36" s="189"/>
       <c r="C36" s="189" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D36" s="189"/>
       <c r="E36" s="189"/>
@@ -8688,11 +8656,11 @@
     </row>
     <row r="37" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="189" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B37" s="189"/>
       <c r="C37" s="189" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D37" s="189"/>
       <c r="E37" s="189"/>
@@ -8700,7 +8668,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="196" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B38" s="196"/>
       <c r="C38" s="196"/>
@@ -8710,7 +8678,7 @@
     </row>
     <row r="39" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="203" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B39" s="203"/>
       <c r="C39" s="203"/>
